--- a/artfynd/A 10766-2023.xlsx
+++ b/artfynd/A 10766-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>66541020</v>
+        <v>91961108</v>
       </c>
       <c r="B2" t="n">
-        <v>89392</v>
+        <v>78569</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Grysjöbäcken, Mpd</t>
+          <t>Mysjöberget, Mpd</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>633480.2438334802</v>
+        <v>632736.7829380766</v>
       </c>
       <c r="R2" t="n">
-        <v>6940243.949297423</v>
+        <v>6940262.09546657</v>
       </c>
       <c r="S2" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2014-09-18</t>
+          <t>2020-06-09</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2014-09-18</t>
+          <t>2020-06-09</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -777,30 +777,25 @@
       <c r="AG2" t="b">
         <v>0</v>
       </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>23349</t>
-        </is>
-      </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Malin Sahlin</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>66541021</v>
+        <v>66541020</v>
       </c>
       <c r="B3" t="n">
-        <v>77506</v>
+        <v>89392</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,28 +808,24 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Grysjöbäcken, Mpd</t>
@@ -900,7 +891,7 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>23350</t>
+          <t>23349</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -918,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>91961108</v>
+        <v>66541021</v>
       </c>
       <c r="B4" t="n">
-        <v>78569</v>
+        <v>77506</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -934,37 +925,41 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Mysjöberget, Mpd</t>
+          <t>Grysjöbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>632736.7829380766</v>
+        <v>633480.2438334802</v>
       </c>
       <c r="R4" t="n">
-        <v>6940262.09546657</v>
+        <v>6940243.949297423</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -988,7 +983,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2020-06-09</t>
+          <t>2014-09-18</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -998,7 +993,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2020-06-09</t>
+          <t>2014-09-18</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1015,15 +1010,20 @@
       <c r="AG4" t="b">
         <v>0</v>
       </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>23350</t>
+        </is>
+      </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Malin Sahlin</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>

--- a/artfynd/A 10766-2023.xlsx
+++ b/artfynd/A 10766-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>91961108</v>
+        <v>66541020</v>
       </c>
       <c r="B2" t="n">
-        <v>78569</v>
+        <v>89392</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Mysjöberget, Mpd</t>
+          <t>Grysjöbäcken, Mpd</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>632736.7829380766</v>
+        <v>633480.2438334802</v>
       </c>
       <c r="R2" t="n">
-        <v>6940262.09546657</v>
+        <v>6940243.949297423</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2020-06-09</t>
+          <t>2014-09-18</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2020-06-09</t>
+          <t>2014-09-18</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -777,25 +777,30 @@
       <c r="AG2" t="b">
         <v>0</v>
       </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>23349</t>
+        </is>
+      </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Malin Sahlin</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Via Malin Sahlin</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>66541020</v>
+        <v>66541021</v>
       </c>
       <c r="B3" t="n">
-        <v>89392</v>
+        <v>77506</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,24 +813,28 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Grysjöbäcken, Mpd</t>
@@ -891,7 +900,7 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>23349</t>
+          <t>23350</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -909,10 +918,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>66541021</v>
+        <v>91961108</v>
       </c>
       <c r="B4" t="n">
-        <v>77506</v>
+        <v>78569</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,41 +934,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Grysjöbäcken, Mpd</t>
+          <t>Mysjöberget, Mpd</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>633480.2438334802</v>
+        <v>632736.7829380766</v>
       </c>
       <c r="R4" t="n">
-        <v>6940243.949297423</v>
+        <v>6940262.09546657</v>
       </c>
       <c r="S4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -983,7 +988,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2014-09-18</t>
+          <t>2020-06-09</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -993,7 +998,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2014-09-18</t>
+          <t>2020-06-09</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1010,20 +1015,15 @@
       <c r="AG4" t="b">
         <v>0</v>
       </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>23350</t>
-        </is>
-      </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Malin Sahlin</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Via Malin Sahlin</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
